--- a/pred_ohlcv/54_21/2019-10-27 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 TRX ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-1790353.47269652</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1790526.51609652</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1781801.99939652</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1914617.07849652</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1914617.07849652</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4761347.898690181</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4230095.73069018</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4230095.73069018</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4319047.80399018</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4667092.396890179</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4713088.447590179</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4685451.948390178</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4685451.948390178</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-5090886.614390179</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4945536.885590179</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4813651.473219049</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4896694.641419049</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-4874694.641419049</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-4874694.641419049</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4874285.311619049</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4874285.311619049</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4878166.661519049</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4391919.486419049</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4316800.153319049</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4602199.578119048</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4602199.578119048</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4602044.137719048</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4640394.469019048</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4640394.469019048</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5348995.869219048</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-7335731.967655906</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-7335731.967655906</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-7335731.967655906</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-7479155.967655906</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-7479155.967655906</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-7479155.967655906</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-7479155.967655906</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-7477295.808955907</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-7477596.720855907</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-7477596.720855907</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-7477063.424555907</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-7473129.424555907</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-7713597.557055906</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7713547.557055906</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-7713547.557055906</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-7349935.755255906</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-7413239.558355906</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-7413139.558355906</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-7413139.558355906</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-7419484.237455906</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-7419384.237455906</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-7429284.237455906</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-7321028.544555906</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-7321028.544555906</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-7321028.544555906</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-5999747.769855906</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6987711.798855906</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7390933.316255907</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7299511.502855906</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7407044.724255906</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-6907044.724255906</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-6907693.652755907</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-6906676.705455907</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-6919468.412855906</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-6918129.912855906</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-6918129.912855906</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-6919203.470655906</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-6968833.698055906</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-6968803.698055906</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7466666.740755906</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-7272658.942955907</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-7276186.282455906</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-7277724.939655907</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-7277171.431855907</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-7277171.431855907</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-7277171.431855907</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7277587.067155907</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7277587.067155907</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7185284.239955907</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7355753.513855907</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7355753.513855907</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7277508.142455908</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7407979.889255907</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7407979.889255907</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7474854.428055908</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7437583.164903278</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7452596.899603277</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7386504.847003277</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7404698.334203278</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7404688.334203278</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7404688.334203278</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-8934016.938503278</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-8936473.938503278</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-8936473.938503278</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-8936463.938503278</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-8936463.938503278</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-8936463.938503278</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-8936463.938503278</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-8984511.301496468</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-9023563.575096469</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-8837161.100596469</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-8837161.100596469</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-8836899.32049647</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-9030057.16841951</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-9374695.52171951</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9755143.99195355</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-9755143.99195355</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-9730600.00195355</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-9090867.55415355</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-9116767.689853551</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-8834814.013353551</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-8834804.013353551</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-9018388.011153549</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-9018339.469553549</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-9167937.048453549</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-9177702.272553548</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-8879700.208353547</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-8879700.208353547</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-8674399.851253549</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-5212973.015055559</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-4606959.447955559</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-5216203.159140479</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-5439059.116440479</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-4600453.464938458</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 TRX ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-1790353.47269652</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1790526.51609652</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1781801.99939652</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1914617.07849652</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1914617.07849652</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4230095.73069018</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4230095.73069018</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4319047.80399018</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4667092.396890179</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4713088.447590179</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4685451.948390178</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4685451.948390178</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-5090886.614390179</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4945536.885590179</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4813651.473219049</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4896694.641419049</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-4874694.641419049</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-4874694.641419049</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4874285.311619049</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4874285.311619049</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4878166.661519049</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4391919.486419049</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4316800.153319049</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4602199.578119048</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4602199.578119048</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4602044.137719048</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4640394.469019048</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4640394.469019048</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5348995.869219048</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-6907693.652755907</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9755143.99195355</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-9730600.00195355</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-9090867.55415355</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-9116767.689853551</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-8834814.013353551</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-8834804.013353551</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-9018388.011153549</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-9018339.469553549</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-9167937.048453549</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-9177702.272553548</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-8879700.208353547</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-8879700.208353547</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-8674399.851253549</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5168723.064553548</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-4913149.995053548</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-5212973.015055559</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-4606959.447955559</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-5216203.159140479</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-5439059.116440479</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-4600453.464938458</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-4663247.964938458</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-4642870.294138458</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-5125459.391938457</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
